--- a/tabella.xlsx
+++ b/tabella.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>alimentazione</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>default(0)</t>
+  </si>
+  <si>
+    <t>smallint</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -537,7 +540,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.65">
